--- a/SCBAA/2018/Region 4B.xlsx
+++ b/SCBAA/2018/Region 4B.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9119B7F-CA84-45A0-8057-C330C383C1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703CF79A-87BE-40EB-8626-4590D1A144BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="1875" windowWidth="14250" windowHeight="12495" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14625" windowHeight="12540" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calapan" sheetId="1" r:id="rId1"/>
-    <sheet name="Puerto Prinsesa" sheetId="2" r:id="rId2"/>
+    <sheet name="Puerto Princesa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2044,7 +2051,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCBAA/2018/Region 4B.xlsx
+++ b/SCBAA/2018/Region 4B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703CF79A-87BE-40EB-8626-4590D1A144BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1936489-F7E0-454F-977A-6DAF6A55B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="14625" windowHeight="12540" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calapan" sheetId="1" r:id="rId1"/>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03AE607-41CB-4E2F-A5CB-921E88B841BE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2197,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>6935228.99+8176981.63</f>
         <v>15112210.620000001</v>
       </c>
     </row>
@@ -2209,7 +2208,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>468682101.39999998</v>
       </c>
     </row>
@@ -2263,7 +2261,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>311284526.22000003</v>
       </c>
     </row>
@@ -2454,7 +2451,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3169961470.6199999</v>
       </c>
     </row>
@@ -3022,7 +3018,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="36">
-        <f>SUM(E90:E91)</f>
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3027,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1784931454.4199996</v>
       </c>
     </row>
@@ -3207,7 +3201,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>367221601.74000001</v>
       </c>
     </row>
@@ -3219,7 +3212,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2152153056.1599998</v>
       </c>
     </row>
